--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>913051.557172228</v>
+        <v>912333.5670573694</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760743</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>283.3458577881798</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.22789100784752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -831,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>1.857062697108432</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -873,13 +873,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>136.0258494143359</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>311.9192688324425</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5104445397025</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>92.01098438110735</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>264.9481049475941</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1144,13 +1144,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>207.3436930571719</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>168.9733955350581</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>35.21818527535722</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>182.3472316165828</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>130.1695718579087</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.9989678506928</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>348.2930417606518</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>106.38799505241</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1827,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>120.6429778048366</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>11.39996927779299</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>153.9723828910722</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.04008984845</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>73.88082355467124</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>189.573306686934</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>49.8759779271652</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>169.8571210237862</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -4036,13 +4036,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4146,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4191,16 +4191,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>220.5479980920884</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>79.35347485062464</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>1133.6911139303</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>706.7903839436005</v>
       </c>
       <c r="D2" t="n">
         <v>420.5824467838229</v>
@@ -4336,46 +4336,46 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.681059525157</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1903.75548856979</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1645.400579166202</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>1287.911164292452</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W2" t="n">
-        <v>891.5198145927988</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8402198009501</v>
+        <v>1554.836344226536</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>1553.53947822183</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>201.1892506764427</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>791.3256356528027</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="C4" t="n">
-        <v>791.3256356528027</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="D4" t="n">
-        <v>628.0088627795734</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E4" t="n">
-        <v>461.8006569324269</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F4" t="n">
-        <v>289.9388827069873</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4488,13 +4488,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
@@ -4521,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.686776502613</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.834372675126</v>
+        <v>1065.102480109649</v>
       </c>
       <c r="X4" t="n">
-        <v>1207.834372675126</v>
+        <v>1065.102480109649</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.4916043648684</v>
+        <v>838.7597117993912</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885896</v>
+        <v>1691.719133247433</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422938</v>
+        <v>1668.858807301137</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>1245.566186486137</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>819.5892466339948</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>394.465064823395</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4573,19 +4573,19 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1923.058660820666</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.703751417078</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.703751417078</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.703751417078</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1961.835816717766</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.6310375047708</v>
+        <v>1479.915213010498</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728575</v>
+        <v>1053.014483023798</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>1033.762266249203</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>1011.825730437464</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>586.7015486268647</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4804,19 +4804,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="N8" t="n">
         <v>549.9383681074144</v>
-      </c>
-      <c r="M8" t="n">
-        <v>549.9383681074144</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
         <v>1100.603903091853</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>1497.02003926633</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.479401796301</v>
+        <v>1495.723173261624</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
         <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>681.2762346339712</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="C10" t="n">
-        <v>681.2762346339712</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="D10" t="n">
-        <v>517.9594617607419</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.4422033460369</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
@@ -5047,13 +5047,13 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1741.388990499732</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M11" t="n">
-        <v>2745.67509191879</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
         <v>3721.926150405491</v>
@@ -5074,19 +5074,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>371.7744341585812</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>646.4020714735193</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>646.4020714735193</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1362.599788512017</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.001097697459</v>
+        <v>673.2155242095569</v>
       </c>
       <c r="C13" t="n">
-        <v>845.0285345763751</v>
+        <v>673.2155242095569</v>
       </c>
       <c r="D13" t="n">
-        <v>681.7117617031458</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="E13" t="n">
-        <v>515.5035558559994</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6417816305598</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
         <v>343.6417816305598</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.088765190713</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.749417416613</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.564968916917</v>
+        <v>1830.170476311557</v>
       </c>
       <c r="V13" t="n">
-        <v>1291.853501524946</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.001097697459</v>
+        <v>1273.606605092099</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.001097697459</v>
+        <v>1031.042708537904</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.001097697459</v>
+        <v>804.6999402276465</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5284,22 +5284,22 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>2994.337835136581</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5320,10 +5320,10 @@
         <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.1743829682065</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>789.1743829682065</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>681.7117617031458</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>515.5035558559994</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6417816305598</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
         <v>343.6417816305598</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.081047832659</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.081047832659</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.517151278464</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.1743829682065</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5521,22 +5521,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.5965237391339</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6239606180499</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>412.3071877448206</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>973.9392920493918</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.5965237391339</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5831,25 +5831,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>946.5481644506465</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2080.149468020199</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1799.965019520503</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1518.253552128532</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1243.401148301044</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.83725174685</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>774.4944834365917</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.654482149731</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N23" t="n">
-        <v>3813.905540636432</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>275.5106105659859</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>275.5106105659859</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>396.9731123886033</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>233.656339515374</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6308,13 +6308,13 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>381.4468456473314</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L27" t="n">
-        <v>381.4468456473314</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M27" t="n">
-        <v>381.4468456473314</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N27" t="n">
         <v>648.6278400003578</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6706,19 +6706,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L33" t="n">
-        <v>1112.773316863137</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.773316863137</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N33" t="n">
-        <v>1112.773316863137</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O33" t="n">
-        <v>1112.773316863137</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1416.431999974578</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1880.577476837357</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.9464360574118</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1429.01906963393</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.455173079735</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>960.1124047694775</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>325.1003961287815</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>1040.608704104281</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1970.233751723557</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N39" t="n">
-        <v>374.0002026854196</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O39" t="n">
-        <v>1263.481480696891</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7335,49 +7335,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358274</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302482</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025269</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251169</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751473</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359502</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4544125320147</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>793.966223959354</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7420,13 +7420,13 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4430.205429563419</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
         <v>4430.205429563419</v>
@@ -7438,25 +7438,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822645</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>3195.159613368996</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L42" t="n">
-        <v>3195.159613368996</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M42" t="n">
-        <v>3195.159613368996</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N42" t="n">
-        <v>4284.474559841866</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>4284.474559841866</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>4539.701767086725</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3399.46422884086</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C43" t="n">
-        <v>3399.46422884086</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D43" t="n">
-        <v>3399.46422884086</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E43" t="n">
-        <v>3233.256022993713</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155813</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T43" t="n">
-        <v>4786.673583155813</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U43" t="n">
-        <v>4615.100733636837</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V43" t="n">
-        <v>4333.389266244865</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.536862417378</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X43" t="n">
-        <v>3815.972965863184</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y43" t="n">
-        <v>3589.630197552925</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563419</v>
+        <v>4637.488747086102</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7684,10 +7684,10 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
         <v>3363.661363873117</v>
@@ -7727,28 +7727,28 @@
         <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>107.5235878409019</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>107.5235878409019</v>
+        <v>379.221077120493</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1378205852488</v>
+        <v>379.221077120493</v>
       </c>
       <c r="M45" t="n">
-        <v>555.1378205852488</v>
+        <v>379.221077120493</v>
       </c>
       <c r="N45" t="n">
-        <v>555.1378205852488</v>
+        <v>379.221077120493</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.1393234720196</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C46" t="n">
-        <v>673.1667603509355</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D46" t="n">
-        <v>509.8499874777062</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>343.6417816305598</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6417816305598</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
         <v>343.6417816305598</v>
@@ -7839,19 +7839,19 @@
         <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.081047832659</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W46" t="n">
-        <v>1035.305292184085</v>
+        <v>1263.413092504868</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.305292184085</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y46" t="n">
-        <v>1035.305292184085</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8221,22 +8221,22 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6125166681525</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76900350898808</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8534,25 +8534,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836703</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8695,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>607.201212966307</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>767.069374108112</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8768,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8777,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N12" t="n">
-        <v>298.7446820670145</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>886.6939262492853</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -8941,7 +8941,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>681.6953357480734</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>482.0566840416755</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
-        <v>835.1882033210079</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>775.2973590804446</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9479,19 +9479,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>912.679259982217</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9640,13 +9640,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>360.2906876703342</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>772.395863235019</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>197.3567057122801</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>534.642907502631</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9956,7 +9956,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,7 +9965,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>291.2228204893258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>768.7505555806109</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10448,10 +10448,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>54.3929872213976</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>254.4681238522057</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10603,13 +10603,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>248.2087549892667</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>124.138595085601</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>382.6985455853151</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11138,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>979.1626539795797</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>279.5761010481211</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>165.8504292605622</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>406.1837623454084</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>474.650675344883</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>293.0516819980063</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>73.42412869296905</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>58.09473716703627</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4347291553637</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.29561009208696</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>151.4609019843755</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.7382883108599</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>86.93357140528681</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.55431016026014</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.2230562345409</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>113.008962604416</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>50.5649509017189</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>48.89490464996159</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>107.5254829909125</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>51.55588169712365</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>160.7847827380283</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718711.5905566284</v>
+        <v>718711.5905566283</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718711.5905566284</v>
+        <v>718711.5905566283</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718711.5905566284</v>
+        <v>718711.5905566283</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>707718.6081745768</v>
+        <v>707718.6081745767</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>393148.800907535</v>
+      </c>
+      <c r="C2" t="n">
         <v>393148.8009075351</v>
-      </c>
-      <c r="C2" t="n">
-        <v>393148.8009075352</v>
       </c>
       <c r="D2" t="n">
         <v>393148.8009075351</v>
@@ -26325,10 +26325,10 @@
         <v>373569.1848794165</v>
       </c>
       <c r="F2" t="n">
-        <v>373569.1848794164</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="G2" t="n">
-        <v>379370.5221177771</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="H2" t="n">
         <v>379370.5221177771</v>
@@ -26340,19 +26340,19 @@
         <v>379370.5221177769</v>
       </c>
       <c r="K2" t="n">
-        <v>379370.5221177768</v>
+        <v>379370.522117777</v>
       </c>
       <c r="L2" t="n">
+        <v>379370.522117777</v>
+      </c>
+      <c r="M2" t="n">
         <v>379370.5221177769</v>
       </c>
-      <c r="M2" t="n">
-        <v>379370.5221177768</v>
-      </c>
       <c r="N2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="O2" t="n">
-        <v>373569.1848794165</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="P2" t="n">
         <v>373569.1848794165</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69191.23877069296</v>
+        <v>-69191.23877069307</v>
       </c>
       <c r="C6" t="n">
-        <v>117213.4946440444</v>
+        <v>117213.4946440443</v>
       </c>
       <c r="D6" t="n">
-        <v>117213.4946440443</v>
+        <v>117213.4946440442</v>
       </c>
       <c r="E6" t="n">
-        <v>-23483.57900236725</v>
+        <v>-23556.09609876768</v>
       </c>
       <c r="F6" t="n">
-        <v>183948.7086141935</v>
+        <v>183876.1915177933</v>
       </c>
       <c r="G6" t="n">
-        <v>178665.87040205</v>
+        <v>178614.8397398655</v>
       </c>
       <c r="H6" t="n">
-        <v>186291.4924855315</v>
+        <v>186240.4618233472</v>
       </c>
       <c r="I6" t="n">
-        <v>186291.4924855313</v>
+        <v>186240.461823347</v>
       </c>
       <c r="J6" t="n">
-        <v>40757.82255071483</v>
+        <v>40706.79188853053</v>
       </c>
       <c r="K6" t="n">
-        <v>186291.4924855312</v>
+        <v>186240.4618233471</v>
       </c>
       <c r="L6" t="n">
-        <v>186291.4924855313</v>
+        <v>186240.4618233471</v>
       </c>
       <c r="M6" t="n">
-        <v>13161.00127989166</v>
+        <v>13109.97061770747</v>
       </c>
       <c r="N6" t="n">
-        <v>186291.4924855314</v>
+        <v>186240.461823347</v>
       </c>
       <c r="O6" t="n">
-        <v>183948.7086141937</v>
+        <v>183876.1915177931</v>
       </c>
       <c r="P6" t="n">
-        <v>183948.7086141937</v>
+        <v>183876.1915177932</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>135.7138368186699</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.095730177743476</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>162.7373373116017</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>136.0780303748762</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>88.37640295400337</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.20587070611069</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>113.0089626044154</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>185.3716196335914</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>157.6836177392387</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>192.9519787292739</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>19.29091348988689</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>129.3279385133177</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34941,22 +34941,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>75.42597529544641</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35254,25 +35254,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35415,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>568.8891705336841</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>729.6381112086802</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4016538534729</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>848.3818838166624</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>644.3043763920493</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>459.6574502083421</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
-        <v>797.7972439649839</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36199,19 +36199,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>891.3362317686754</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36360,13 +36360,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>324.5260868755249</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>734.9646003355872</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36676,7 +36676,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>746.2354688663813</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>30.72006782725346</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>225.0481643666192</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37323,13 +37323,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>102.3677538807724</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937787</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>345.307586229291</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>257.8052598432924</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>128.5708064261162</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>370.0590877408104</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>452.1355886306534</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>269.8797922757841</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
